--- a/media/predictions/7.xlsx
+++ b/media/predictions/7.xlsx
@@ -7,7 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="A" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="C" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Distance №1</t>
   </si>
@@ -47,16 +48,7 @@
     <t>Prediction time</t>
   </si>
   <si>
-    <t>mister second</t>
-  </si>
-  <si>
     <t>Zhabran Illya</t>
-  </si>
-  <si>
-    <t>Zhabran fifth</t>
-  </si>
-  <si>
-    <t>1 1</t>
   </si>
   <si>
     <t>habran illya</t>
@@ -420,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,119 +504,142 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="15"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="4" min="4" width="15"/>
+    <col customWidth="1" max="5" min="5" width="15"/>
+    <col customWidth="1" max="7" min="7" width="15"/>
+    <col customWidth="1" max="8" min="8" width="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="n">
         <v>44</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
